--- a/data_year/zb/运输和邮电/客运量.xlsx
+++ b/data_year/zb/运输和邮电/客运量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,616 +478,356 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1347392</v>
+        <v>3052738</v>
       </c>
       <c r="C2" t="n">
-        <v>2707</v>
+        <v>2371</v>
       </c>
       <c r="D2" t="n">
-        <v>101847</v>
+        <v>164761.023</v>
       </c>
       <c r="E2" t="n">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="F2" t="n">
-        <v>1478573</v>
+        <v>3269508.1667</v>
       </c>
       <c r="G2" t="n">
-        <v>6721.66</v>
+        <v>26769.1437</v>
       </c>
       <c r="H2" t="n">
-        <v>19386</v>
+        <v>22392</v>
       </c>
       <c r="I2" t="n">
-        <v>105073</v>
+        <v>167609.023</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1402798</v>
+        <v>3286220</v>
       </c>
       <c r="C3" t="n">
-        <v>2917</v>
+        <v>6498.48480000002</v>
       </c>
       <c r="D3" t="n">
-        <v>101680</v>
+        <v>179199.1732</v>
       </c>
       <c r="E3" t="n">
-        <v>558</v>
+        <v>528.4148</v>
       </c>
       <c r="F3" t="n">
-        <v>1534122</v>
+        <v>3526318.731</v>
       </c>
       <c r="G3" t="n">
-        <v>7524</v>
+        <v>29316.6582</v>
       </c>
       <c r="H3" t="n">
-        <v>18645</v>
+        <v>24556</v>
       </c>
       <c r="I3" t="n">
-        <v>105155</v>
+        <v>186226.0728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1475257</v>
+        <v>3557010</v>
       </c>
       <c r="C4" t="n">
-        <v>3349</v>
+        <v>890.8806</v>
       </c>
       <c r="D4" t="n">
-        <v>101741</v>
+        <v>187863.3623</v>
       </c>
       <c r="E4" t="n">
-        <v>516</v>
+        <v>582.6082</v>
       </c>
       <c r="F4" t="n">
-        <v>1608150</v>
+        <v>3804034.9016</v>
       </c>
       <c r="G4" t="n">
-        <v>8594</v>
+        <v>31936.0505</v>
       </c>
       <c r="H4" t="n">
-        <v>18693</v>
+        <v>25752</v>
       </c>
       <c r="I4" t="n">
-        <v>105606</v>
+        <v>189336.8511</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1464335</v>
+        <v>1853463</v>
       </c>
       <c r="C5" t="n">
-        <v>3214</v>
+        <v>2365.7944</v>
       </c>
       <c r="D5" t="n">
-        <v>93634</v>
+        <v>207541.3803</v>
       </c>
       <c r="E5" t="n">
-        <v>412</v>
+        <v>689.7418</v>
       </c>
       <c r="F5" t="n">
-        <v>1587497</v>
+        <v>2122991.5466</v>
       </c>
       <c r="G5" t="n">
-        <v>8759</v>
+        <v>35396.6301</v>
       </c>
       <c r="H5" t="n">
-        <v>17142</v>
+        <v>23535</v>
       </c>
       <c r="I5" t="n">
-        <v>97260</v>
+        <v>210596.9165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1624526</v>
+        <v>1736270</v>
       </c>
       <c r="C6" t="n">
-        <v>4040</v>
+        <v>2561.7259</v>
       </c>
       <c r="D6" t="n">
-        <v>107346</v>
+        <v>232380.9856</v>
       </c>
       <c r="E6" t="n">
-        <v>378</v>
+        <v>761.6909000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>1767453</v>
+        <v>2032217.8116</v>
       </c>
       <c r="G6" t="n">
-        <v>12123</v>
+        <v>39194.8776</v>
       </c>
       <c r="H6" t="n">
-        <v>19040</v>
+        <v>26292.934</v>
       </c>
       <c r="I6" t="n">
-        <v>111764</v>
+        <v>230460</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1697381</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4613</v>
-      </c>
-      <c r="D7" t="n">
-        <v>110651</v>
-      </c>
-      <c r="E7" t="n">
-        <v>319</v>
-      </c>
+        <v>1619097</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>1847018</v>
+        <v>1943271</v>
       </c>
       <c r="G7" t="n">
-        <v>13827</v>
+        <v>43618</v>
       </c>
       <c r="H7" t="n">
-        <v>20227</v>
+        <v>27072</v>
       </c>
       <c r="I7" t="n">
-        <v>115583</v>
+        <v>253484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1860487</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5504.6258</v>
-      </c>
-      <c r="D8" t="n">
-        <v>119728.17</v>
-      </c>
-      <c r="E8" t="n">
-        <v>423</v>
-      </c>
+        <v>1542758.6717</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>2024157.6406</v>
+        <v>1900194.3436</v>
       </c>
       <c r="G8" t="n">
-        <v>15967.8448</v>
+        <v>48796.0477</v>
       </c>
       <c r="H8" t="n">
-        <v>22047</v>
+        <v>27234.3965</v>
       </c>
       <c r="I8" t="n">
-        <v>125655.7958</v>
+        <v>281405.2277</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2050680</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6507</v>
-      </c>
-      <c r="D9" t="n">
-        <v>128712</v>
-      </c>
-      <c r="E9" t="n">
-        <v>450.9885</v>
-      </c>
+        <v>1456784.3276</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>2227761.2112</v>
+        <v>1848620.121</v>
       </c>
       <c r="G9" t="n">
-        <v>18576.2112</v>
+        <v>55156.1108</v>
       </c>
       <c r="H9" t="n">
-        <v>22835</v>
+        <v>28300.3402</v>
       </c>
       <c r="I9" t="n">
-        <v>135670</v>
+        <v>308379.3424</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2682114</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1266.7296</v>
-      </c>
-      <c r="D10" t="n">
-        <v>144452.1183</v>
-      </c>
-      <c r="E10" t="n">
-        <v>474</v>
-      </c>
+        <v>1367170.3903</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>2867891.96389</v>
+        <v>1793820.325</v>
       </c>
       <c r="G10" t="n">
-        <v>19251.11599</v>
+        <v>61173.7718</v>
       </c>
       <c r="H10" t="n">
-        <v>20334</v>
+        <v>27981.4889</v>
       </c>
       <c r="I10" t="n">
-        <v>146192.8479</v>
+        <v>337494.674</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2779081</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1234.354</v>
-      </c>
-      <c r="D11" t="n">
-        <v>150797.5369</v>
-      </c>
-      <c r="E11" t="n">
-        <v>419.3017</v>
-      </c>
+        <v>1301172.9132</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>2976897.8313</v>
+        <v>1760435.7117</v>
       </c>
       <c r="G11" t="n">
-        <v>23051.6387</v>
+        <v>65993.4231</v>
       </c>
       <c r="H11" t="n">
-        <v>22314</v>
+        <v>27267.1199</v>
       </c>
       <c r="I11" t="n">
-        <v>152451.1926</v>
+        <v>366002.2555</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3052738</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2371</v>
-      </c>
-      <c r="D12" t="n">
-        <v>164761.023</v>
-      </c>
-      <c r="E12" t="n">
-        <v>477</v>
-      </c>
+        <v>689425</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>3269508.1667</v>
+        <v>966539.7145</v>
       </c>
       <c r="G12" t="n">
-        <v>26769.1437</v>
+        <v>41777.8171</v>
       </c>
       <c r="H12" t="n">
-        <v>22392</v>
+        <v>14987</v>
       </c>
       <c r="I12" t="n">
-        <v>167609.023</v>
+        <v>220349.8974</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3286220</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6498.48480000002</v>
-      </c>
-      <c r="D13" t="n">
-        <v>179199.1732</v>
-      </c>
-      <c r="E13" t="n">
-        <v>528.4148</v>
-      </c>
+        <v>508693.2524</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>3526318.731</v>
+        <v>830256.613</v>
       </c>
       <c r="G13" t="n">
-        <v>29316.6582</v>
+        <v>44055.7425</v>
       </c>
       <c r="H13" t="n">
-        <v>24556</v>
+        <v>16337.0601</v>
       </c>
       <c r="I13" t="n">
-        <v>186226.0728</v>
+        <v>261170.558</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3557010</v>
-      </c>
-      <c r="C14" t="n">
-        <v>890.8806</v>
-      </c>
-      <c r="D14" t="n">
-        <v>187863.3623</v>
-      </c>
-      <c r="E14" t="n">
-        <v>582.6082</v>
-      </c>
+        <v>354642.8</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>3804034.9016</v>
+        <v>558737.6346</v>
       </c>
       <c r="G14" t="n">
-        <v>31936.0505</v>
+        <v>25171.04</v>
       </c>
       <c r="H14" t="n">
-        <v>25752</v>
+        <v>11627.48</v>
       </c>
       <c r="I14" t="n">
-        <v>189336.8511</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1853463</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2365.7944</v>
-      </c>
-      <c r="D15" t="n">
-        <v>207541.3803</v>
-      </c>
-      <c r="E15" t="n">
-        <v>689.7418</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2122991.5466</v>
-      </c>
-      <c r="G15" t="n">
-        <v>35396.6301</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23535</v>
-      </c>
-      <c r="I15" t="n">
-        <v>210596.9165</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1736270</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2561.7259</v>
-      </c>
-      <c r="D16" t="n">
-        <v>232380.9856</v>
-      </c>
-      <c r="E16" t="n">
-        <v>761.6909000000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2032217.8116</v>
-      </c>
-      <c r="G16" t="n">
-        <v>39194.8776</v>
-      </c>
-      <c r="H16" t="n">
-        <v>26292.934</v>
-      </c>
-      <c r="I16" t="n">
-        <v>230460</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1619097</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>1943271</v>
-      </c>
-      <c r="G17" t="n">
-        <v>43618</v>
-      </c>
-      <c r="H17" t="n">
-        <v>27072</v>
-      </c>
-      <c r="I17" t="n">
-        <v>253484</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1542758.6717</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>1900194.3436</v>
-      </c>
-      <c r="G18" t="n">
-        <v>48796.0477</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27234.3965</v>
-      </c>
-      <c r="I18" t="n">
-        <v>281405.2277</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1456784.3276</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>1848620.121</v>
-      </c>
-      <c r="G19" t="n">
-        <v>55156.1108</v>
-      </c>
-      <c r="H19" t="n">
-        <v>28300.3402</v>
-      </c>
-      <c r="I19" t="n">
-        <v>308379.3424</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1367170.3903</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>1793820.325</v>
-      </c>
-      <c r="G20" t="n">
-        <v>61173.7718</v>
-      </c>
-      <c r="H20" t="n">
-        <v>27981.4889</v>
-      </c>
-      <c r="I20" t="n">
-        <v>337494.674</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1301172.9132</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>1760435.7117</v>
-      </c>
-      <c r="G21" t="n">
-        <v>65993.4231</v>
-      </c>
-      <c r="H21" t="n">
-        <v>27267.1199</v>
-      </c>
-      <c r="I21" t="n">
-        <v>366002.2555</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>689425</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>966539.7145</v>
-      </c>
-      <c r="G22" t="n">
-        <v>41777.8171</v>
-      </c>
-      <c r="H22" t="n">
-        <v>14987</v>
-      </c>
-      <c r="I22" t="n">
-        <v>220349.8974</v>
+        <v>167296.3146</v>
       </c>
     </row>
   </sheetData>
